--- a/medicine/Psychotrope/Encavage/Encavage.xlsx
+++ b/medicine/Psychotrope/Encavage/Encavage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Encavage est un terme utilisé en Suisse romande pour désigner l'endroit de production d'un vin. 
 Étymologiquement, l'encavage désigne la mise en cave de denrées alimentaires, la cave servant alors de cellier. L'extension de ce terme au lieu de garde du vin date du XVIIe siècle selon le Petit Robert. 
